--- a/client/public/Sorce/balanceZP.xlsx
+++ b/client/public/Sorce/balanceZP.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <si>
     <t>Формирвоание отчета</t>
   </si>
   <si>
-    <t>Период: на 31.01.2025 12:25:12</t>
+    <t>Период: на 01.02.2025 11:35:10</t>
   </si>
   <si>
     <t>Показатели: Свободный остаток(В ед. хранения);</t>
@@ -104,9 +104,6 @@
     <t>ПРИПРАВИ</t>
   </si>
   <si>
-    <t>Приправа до картоплі УБ 25г /34шт</t>
-  </si>
-  <si>
     <t>Приправа до курки УБ 25г /34шт</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>Yummi Gummi Frozen Yogo ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
-    <t>Yummi Gummi Funny Cola ВКФ 70г /22шт</t>
-  </si>
-  <si>
     <t>Yummi Gummi Funny Cola ВКФ 70г /22шт АКЦІЯ</t>
   </si>
   <si>
@@ -773,9 +767,6 @@
     <t>До кави пряжене молоко ВКФ 185г /28шт /АКЦІЯ</t>
   </si>
   <si>
-    <t>До кави пряжене молоко ККФ 370г /24шт</t>
-  </si>
-  <si>
     <t>КРЕКЕР 2 CRACK з молочно-ванільною начинкою ККФ 235г /14шт</t>
   </si>
   <si>
@@ -800,9 +791,6 @@
     <t>Galaretka Roshen РЦ 2кг /5пак</t>
   </si>
   <si>
-    <t>Hola! Granola РЦ 0.5кг /8пак</t>
-  </si>
-  <si>
     <t>Johnny Krocker choco ВКФ 1кг /4шт /</t>
   </si>
   <si>
@@ -902,9 +890,6 @@
     <t>Lacmi молочний ВКФ 90г /22шт АКЦІЯ</t>
   </si>
   <si>
-    <t>Lacmi молочний ВКФ 90г /24шт /</t>
-  </si>
-  <si>
     <t>Lacmi молочний з арахісом і карамельно-арахісовою начинкою ВКФ 295г /12шт</t>
   </si>
   <si>
@@ -917,9 +902,6 @@
     <t>Lacmi молочний з арахісом, карамельною та арахісовою начинками ВКФ 87г /22шт АКЦІЯ Цінова</t>
   </si>
   <si>
-    <t>Lacmi молочний з мигдалем та кокосовим кремом ВКФ 84г /22шт</t>
-  </si>
-  <si>
     <t>Lacmi молочний з молочною начинкою та вафлею ВКФ 90г /18шт</t>
   </si>
   <si>
@@ -944,9 +926,6 @@
     <t>Lacmi молочний з начинкою зі смаком "Полунична панакота" ВКФ 90г /22шт АКЦІЯ Цінова</t>
   </si>
   <si>
-    <t>Lacmi молочний з начинкою зі смаком "Тірамісу" та печивом ВКФ 270г /12шт</t>
-  </si>
-  <si>
     <t>Lacmi молочний з сезамом ВКФ 90г /22шт</t>
   </si>
   <si>
@@ -980,6 +959,9 @@
     <t>Roshen Nut молочний з цілим мигдалем ВКФ 90г /20шт АКЦІЯ Цінова UA</t>
   </si>
   <si>
+    <t>Roshen Nut молочний з цілим фундуком ВКФ 90г /18шт</t>
+  </si>
+  <si>
     <t>Roshen Nut молочний з цілим фундуком ВКФ 90г /18шт АКЦІЯ</t>
   </si>
   <si>
@@ -1038,9 +1020,6 @@
   </si>
   <si>
     <t>Roshen чорний Special 56% ВКФ 85г /35шт /</t>
-  </si>
-  <si>
-    <t>Roshen чорний з підсоленим подрібн. мигдалем ВКФ 85г /35шт /</t>
   </si>
   <si>
     <t>TIDBIT з начинкою зі смаком "Вишневий Брауні" ВКФ 50г /28шт</t>
@@ -1298,7 +1277,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false"/>
   </sheetPr>
-  <dimension ref="C345"/>
+  <dimension ref="C338"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1374,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>178923</v>
+        <v>174326</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true" outlineLevel="1">
@@ -1382,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>24520</v>
+        <v>21727</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true" outlineLevel="2">
@@ -1390,7 +1369,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>3778</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="3">
@@ -1398,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="n">
-        <v>423</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="3">
@@ -1406,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="n">
-        <v>424</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="3">
@@ -1414,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true" outlineLevel="3">
@@ -1422,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="n">
-        <v>625</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="3">
@@ -1430,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="n">
-        <v>840</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="3">
@@ -1446,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>8576</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="3">
@@ -1454,7 +1433,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="n">
-        <v>1933</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="3">
@@ -1462,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="n">
-        <v>2226</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="3">
@@ -1478,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="16" t="n">
-        <v>3808</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="3">
@@ -1486,7 +1465,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="n">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="3">
@@ -1494,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="2">
@@ -1502,7 +1481,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>6091</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="3">
@@ -1510,7 +1489,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="11" t="n">
-        <v>29</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="3">
@@ -1518,7 +1497,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="11" t="n">
-        <v>424</v>
+        <v>960</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="3">
@@ -1526,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="11" t="n">
-        <v>990</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="3">
@@ -1534,23 +1513,23 @@
         <v>31</v>
       </c>
       <c r="C32" s="11" t="n">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="3">
       <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="11" t="n">
-        <v>207</v>
+      <c r="C33" s="16" t="n">
+        <v>1924</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="3">
       <c r="B34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="16" t="n">
-        <v>1949</v>
+      <c r="C34" s="11" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="3">
@@ -1558,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="11" t="n">
-        <v>118</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="3">
@@ -1566,7 +1545,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>641</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true" outlineLevel="3">
@@ -1574,7 +1553,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>258</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="3">
@@ -1582,7 +1561,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="3">
@@ -1590,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>506</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="3">
@@ -1598,7 +1577,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="11" t="n">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="3">
@@ -1606,23 +1585,23 @@
         <v>40</v>
       </c>
       <c r="C41" s="11" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B42" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="11" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B43" s="14" t="s">
+      <c r="C42" s="12" t="n">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B43" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="12" t="n">
-        <v>6075</v>
+      <c r="C43" s="11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="3">
@@ -1630,7 +1609,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="11" t="n">
-        <v>224</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="3">
@@ -1638,7 +1617,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="11" t="n">
-        <v>266</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="3">
@@ -1646,7 +1625,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="11" t="n">
-        <v>166</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="3">
@@ -1654,7 +1633,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="11" t="n">
-        <v>492</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="3">
@@ -1662,7 +1641,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>451</v>
+        <v>957</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="3">
@@ -1670,23 +1649,23 @@
         <v>48</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>992</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="3">
       <c r="B50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="11" t="n">
-        <v>314</v>
+      <c r="C50" s="16" t="n">
+        <v>1180</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="3">
       <c r="B51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="16" t="n">
-        <v>1200</v>
+      <c r="C51" s="11" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="11" customHeight="true" outlineLevel="3">
@@ -1694,7 +1673,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="11" t="n">
-        <v>121</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="3">
@@ -1702,7 +1681,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="11" t="n">
-        <v>633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="3">
@@ -1710,7 +1689,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="11" t="n">
-        <v>1</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="3">
@@ -1718,7 +1697,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="11" t="n">
-        <v>833</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="3">
@@ -1726,31 +1705,31 @@
         <v>55</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B57" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B58" s="13" t="s">
+      <c r="C57" s="12" t="n">
+        <v>152599</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B58" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="12" t="n">
-        <v>154403</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B59" s="14" t="s">
+        <v>54565</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="12" t="n">
-        <v>51662</v>
+      <c r="C59" s="16" t="n">
+        <v>2972</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="3">
@@ -1758,15 +1737,15 @@
         <v>59</v>
       </c>
       <c r="C60" s="16" t="n">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="3">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true" outlineLevel="3">
       <c r="B61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="16" t="n">
-        <v>2340</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="3">
@@ -1774,7 +1753,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="16" t="n">
-        <v>2246</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="3">
@@ -1785,28 +1764,28 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="64" ht="11" customHeight="true" outlineLevel="3">
+    <row r="64" ht="22" customHeight="true" outlineLevel="3">
       <c r="B64" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="n">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="65" ht="22" customHeight="true" outlineLevel="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="65" ht="11" customHeight="true" outlineLevel="3">
       <c r="B65" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="16" t="n">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="3">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true" outlineLevel="3">
       <c r="B66" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="16" t="n">
-        <v>2336</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="3">
@@ -1814,7 +1793,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="16" t="n">
-        <v>2340</v>
+        <v>17673</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="3">
@@ -1822,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="16" t="n">
-        <v>17581</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true" outlineLevel="3">
@@ -1830,7 +1809,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="16" t="n">
-        <v>3600</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="3">
@@ -1841,12 +1820,12 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="71" ht="22" customHeight="true" outlineLevel="3">
+    <row r="71" ht="11" customHeight="true" outlineLevel="3">
       <c r="B71" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="16" t="n">
-        <v>1980</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="3">
@@ -1854,23 +1833,23 @@
         <v>71</v>
       </c>
       <c r="C72" s="16" t="n">
-        <v>3689</v>
-      </c>
-    </row>
-    <row r="73" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B73" s="15" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B73" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="16" t="n">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B74" s="14" t="s">
+      <c r="C73" s="12" t="n">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B74" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="12" t="n">
-        <v>1352</v>
+      <c r="C74" s="11" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="3">
@@ -1878,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="11" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true" outlineLevel="3">
@@ -1886,7 +1865,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="11" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="3">
@@ -1894,7 +1873,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="n">
-        <v>116</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="3">
@@ -1902,7 +1881,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="11" t="n">
-        <v>300</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="3">
@@ -1910,7 +1889,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="11" t="n">
-        <v>74</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="3">
@@ -1918,7 +1897,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="11" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="3">
@@ -1926,7 +1905,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="11" t="n">
-        <v>315</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="3">
@@ -1934,7 +1913,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="11" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="3">
@@ -1942,23 +1921,23 @@
         <v>82</v>
       </c>
       <c r="C83" s="11" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B84" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B84" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="11" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B85" s="14" t="s">
+      <c r="C84" s="12" t="n">
+        <v>9895</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B85" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="12" t="n">
-        <v>10736</v>
+      <c r="C85" s="11" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="3">
@@ -1966,7 +1945,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="11" t="n">
-        <v>270</v>
+        <v>730</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="3">
@@ -1974,7 +1953,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="11" t="n">
-        <v>740</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="3">
@@ -1982,7 +1961,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="11" t="n">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="3">
@@ -1990,23 +1969,23 @@
         <v>88</v>
       </c>
       <c r="C89" s="11" t="n">
-        <v>115</v>
+        <v>688</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="3">
       <c r="B90" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="11" t="n">
-        <v>704</v>
+      <c r="C90" s="16" t="n">
+        <v>1021</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="3">
       <c r="B91" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="16" t="n">
-        <v>1321</v>
+      <c r="C91" s="11" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="3">
@@ -2014,23 +1993,23 @@
         <v>91</v>
       </c>
       <c r="C92" s="11" t="n">
-        <v>450</v>
+        <v>699</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="3">
       <c r="B93" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="11" t="n">
-        <v>924</v>
+      <c r="C93" s="16" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="3">
       <c r="B94" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="16" t="n">
-        <v>1175</v>
+      <c r="C94" s="11" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="3">
@@ -2038,7 +2017,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="11" t="n">
-        <v>425</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="3">
@@ -2046,7 +2025,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="11" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="3">
@@ -2054,7 +2033,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="11" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="3">
@@ -2062,7 +2041,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="11" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="3">
@@ -2070,7 +2049,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="11" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="3">
@@ -2078,7 +2057,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="11" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="3">
@@ -2086,7 +2065,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="3">
@@ -2094,7 +2073,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>44</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="3">
@@ -2102,7 +2081,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="11" t="n">
-        <v>352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="3">
@@ -2110,7 +2089,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>1</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="3">
@@ -2118,7 +2097,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="11" t="n">
-        <v>463</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="3">
@@ -2126,7 +2105,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="11" t="n">
-        <v>335</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="3">
@@ -2134,7 +2113,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="n">
-        <v>128</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="3">
@@ -2142,7 +2121,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="n">
-        <v>418</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="3">
@@ -2150,7 +2129,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="11" t="n">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="3">
@@ -2158,7 +2137,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="11" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="3">
@@ -2166,23 +2145,23 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="3">
       <c r="B112" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="11" t="n">
-        <v>2</v>
+      <c r="C112" s="16" t="n">
+        <v>1267</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="3">
       <c r="B113" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="16" t="n">
-        <v>1283</v>
+      <c r="C113" s="11" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="3">
@@ -2190,7 +2169,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="3">
@@ -2198,7 +2177,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="n">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="3">
@@ -2206,23 +2185,23 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B117" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B117" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B118" s="14" t="s">
+      <c r="C117" s="12" t="n">
+        <v>10451</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B118" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="12" t="n">
-        <v>12317</v>
+      <c r="C118" s="11" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="3">
@@ -2230,7 +2209,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="3">
@@ -2238,7 +2217,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="3">
@@ -2246,7 +2225,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="3">
@@ -2254,7 +2233,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>48</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="3">
@@ -2262,7 +2241,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="n">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="3">
@@ -2270,7 +2249,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="3">
@@ -2278,7 +2257,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="n">
-        <v>28</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="3">
@@ -2286,7 +2265,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="11" t="n">
-        <v>205</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="3">
@@ -2294,7 +2273,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>251</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="3">
@@ -2302,7 +2281,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="n">
-        <v>124</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="3">
@@ -2310,7 +2289,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="n">
-        <v>492</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="3">
@@ -2318,7 +2297,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>491</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="3">
@@ -2326,7 +2305,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="n">
-        <v>143</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="3">
@@ -2334,7 +2313,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="3">
@@ -2342,7 +2321,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="11" t="n">
-        <v>414</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="3">
@@ -2350,7 +2329,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="11" t="n">
-        <v>107</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="3">
@@ -2358,7 +2337,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="11" t="n">
-        <v>414</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="3">
@@ -2366,7 +2345,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="11" t="n">
-        <v>217</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="3">
@@ -2374,7 +2353,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="11" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="3">
@@ -2382,7 +2361,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="11" t="n">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="3">
@@ -2390,7 +2369,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="11" t="n">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="3">
@@ -2398,7 +2377,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="3">
@@ -2406,7 +2385,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="11" t="n">
-        <v>156</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" ht="11" customHeight="true" outlineLevel="3">
@@ -2414,7 +2393,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>55</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="3">
@@ -2422,7 +2401,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="11" t="n">
-        <v>492</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="3">
@@ -2430,7 +2409,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="11" t="n">
-        <v>220</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="3">
@@ -2438,7 +2417,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="11" t="n">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="3">
@@ -2446,7 +2425,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="11" t="n">
-        <v>156</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="3">
@@ -2454,7 +2433,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="11" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" ht="11" customHeight="true" outlineLevel="3">
@@ -2462,7 +2441,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="11" t="n">
-        <v>492</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="3">
@@ -2470,7 +2449,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="11" t="n">
-        <v>72</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="3">
@@ -2478,7 +2457,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="11" t="n">
-        <v>156</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="3">
@@ -2486,7 +2465,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="11" t="n">
-        <v>421</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="3">
@@ -2494,7 +2473,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="11" t="n">
-        <v>492</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="3">
@@ -2502,7 +2481,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="11" t="n">
-        <v>284</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="3">
@@ -2510,7 +2489,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="11" t="n">
-        <v>234</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="3">
@@ -2518,7 +2497,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="11" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="3">
@@ -2526,7 +2505,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="11" t="n">
-        <v>156</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="3">
@@ -2534,7 +2513,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="11" t="n">
-        <v>93</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="3">
@@ -2542,7 +2521,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="11" t="n">
-        <v>492</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="3">
@@ -2550,7 +2529,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="11" t="n">
-        <v>302</v>
+        <v>809</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="3">
@@ -2558,7 +2537,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="11" t="n">
-        <v>234</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="3">
@@ -2566,7 +2545,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="11" t="n">
-        <v>889</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="3">
@@ -2574,7 +2553,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="11" t="n">
-        <v>492</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163" ht="11" customHeight="true" outlineLevel="3">
@@ -2582,7 +2561,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="11" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="3">
@@ -2590,7 +2569,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="11" t="n">
-        <v>156</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="3">
@@ -2598,7 +2577,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="11" t="n">
-        <v>293</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="3">
@@ -2606,7 +2585,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="11" t="n">
-        <v>414</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="3">
@@ -2614,7 +2593,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="11" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="3">
@@ -2622,7 +2601,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="11" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" ht="11" customHeight="true" outlineLevel="3">
@@ -2630,7 +2609,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="3">
@@ -2638,15 +2617,15 @@
         <v>169</v>
       </c>
       <c r="C170" s="11" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B171" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B171" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="11" t="n">
-        <v>32</v>
+      <c r="C171" s="12" t="n">
+        <v>5768</v>
       </c>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="3">
@@ -2654,15 +2633,15 @@
         <v>171</v>
       </c>
       <c r="C172" s="11" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B173" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B173" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="12" t="n">
-        <v>6439</v>
+      <c r="C173" s="11" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="3">
@@ -2670,7 +2649,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="11" t="n">
-        <v>96</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="3">
@@ -2678,7 +2657,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="11" t="n">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="3">
@@ -2686,7 +2665,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="11" t="n">
-        <v>331</v>
+        <v>430</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="3">
@@ -2694,7 +2673,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="11" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="3">
@@ -2702,7 +2681,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="11" t="n">
-        <v>509</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" ht="11" customHeight="true" outlineLevel="3">
@@ -2710,7 +2689,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="11" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" ht="11" customHeight="true" outlineLevel="3">
@@ -2718,7 +2697,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="11" t="n">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" ht="11" customHeight="true" outlineLevel="3">
@@ -2726,7 +2705,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="11" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" ht="11" customHeight="true" outlineLevel="3">
@@ -2734,7 +2713,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="11" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" ht="11" customHeight="true" outlineLevel="3">
@@ -2742,7 +2721,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="11" t="n">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" ht="11" customHeight="true" outlineLevel="3">
@@ -2750,7 +2729,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="11" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="3">
@@ -2758,7 +2737,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="11" t="n">
-        <v>301</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="3">
@@ -2766,7 +2745,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="11" t="n">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="3">
@@ -2774,7 +2753,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="11" t="n">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="188" ht="11" customHeight="true" outlineLevel="3">
@@ -2782,7 +2761,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="11" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="3">
@@ -2790,7 +2769,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="11" t="n">
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="3">
@@ -2798,7 +2777,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="11" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="3">
@@ -2806,7 +2785,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="11" t="n">
-        <v>59</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="3">
@@ -2814,7 +2793,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="11" t="n">
-        <v>12</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="3">
@@ -2822,7 +2801,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="11" t="n">
-        <v>453</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="3">
@@ -2830,7 +2809,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="11" t="n">
-        <v>447</v>
+        <v>89</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="3">
@@ -2838,7 +2817,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>208</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="3">
@@ -2846,7 +2825,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="11" t="n">
-        <v>110</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="3">
@@ -2854,7 +2833,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="11" t="n">
-        <v>354</v>
+        <v>83</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="3">
@@ -2862,7 +2841,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>555</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="3">
@@ -2870,7 +2849,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="11" t="n">
-        <v>83</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="3">
@@ -2878,7 +2857,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>80</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="3">
@@ -2886,7 +2865,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>298</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="3">
@@ -2894,7 +2873,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>440</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="3">
@@ -2902,7 +2881,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>76</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="3">
@@ -2910,15 +2889,15 @@
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B205" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="205" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B205" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C205" s="11" t="n">
-        <v>400</v>
+      <c r="C205" s="12" t="n">
+        <v>1904</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="3">
@@ -2926,15 +2905,15 @@
         <v>205</v>
       </c>
       <c r="C206" s="11" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B207" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B207" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="12" t="n">
-        <v>1936</v>
+      <c r="C207" s="11" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="3">
@@ -2942,7 +2921,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="11" t="n">
-        <v>78</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="3">
@@ -2950,7 +2929,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="11" t="n">
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="3">
@@ -2958,7 +2937,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="11" t="n">
-        <v>260</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="3">
@@ -2966,7 +2945,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="11" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="3">
@@ -2974,7 +2953,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="11" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="3">
@@ -2982,7 +2961,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="11" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="3">
@@ -2990,7 +2969,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="11" t="n">
-        <v>36</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="3">
@@ -2998,7 +2977,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="11" t="n">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="3">
@@ -3006,7 +2985,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="11" t="n">
-        <v>154</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="3">
@@ -3014,7 +2993,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="11" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="3">
@@ -3022,7 +3001,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="11" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="3">
@@ -3030,7 +3009,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="11" t="n">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="3">
@@ -3038,39 +3017,39 @@
         <v>219</v>
       </c>
       <c r="C220" s="11" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B221" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B221" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C221" s="11" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C221" s="12" t="n">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="3">
       <c r="B222" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C222" s="11" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B223" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B223" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="12" t="n">
-        <v>6944</v>
-      </c>
-    </row>
-    <row r="224" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C223" s="11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" ht="11" customHeight="true" outlineLevel="3">
       <c r="B224" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C224" s="11" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" ht="11" customHeight="true" outlineLevel="3">
@@ -3078,7 +3057,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>6</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" ht="11" customHeight="true" outlineLevel="3">
@@ -3086,7 +3065,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>100</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" ht="11" customHeight="true" outlineLevel="3">
@@ -3094,23 +3073,23 @@
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" ht="22" customHeight="true" outlineLevel="3">
       <c r="B228" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="3">
       <c r="B229" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230" ht="22" customHeight="true" outlineLevel="3">
@@ -3118,7 +3097,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>212</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" ht="22" customHeight="true" outlineLevel="3">
@@ -3126,7 +3105,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="232" ht="22" customHeight="true" outlineLevel="3">
@@ -3134,7 +3113,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="233" ht="22" customHeight="true" outlineLevel="3">
@@ -3142,7 +3121,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" ht="22" customHeight="true" outlineLevel="3">
@@ -3150,7 +3129,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="235" ht="22" customHeight="true" outlineLevel="3">
@@ -3158,7 +3137,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" ht="22" customHeight="true" outlineLevel="3">
@@ -3166,23 +3145,23 @@
         <v>235</v>
       </c>
       <c r="C236" s="11" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="237" ht="22" customHeight="true" outlineLevel="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237" ht="11" customHeight="true" outlineLevel="3">
       <c r="B237" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C237" s="11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" ht="22" customHeight="true" outlineLevel="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="238" ht="11" customHeight="true" outlineLevel="3">
       <c r="B238" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C238" s="11" t="n">
-        <v>43</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" ht="11" customHeight="true" outlineLevel="3">
@@ -3190,7 +3169,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="11" t="n">
-        <v>277</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" ht="11" customHeight="true" outlineLevel="3">
@@ -3198,7 +3177,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="11" t="n">
-        <v>346</v>
+        <v>51</v>
       </c>
     </row>
     <row r="241" ht="11" customHeight="true" outlineLevel="3">
@@ -3206,7 +3185,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="11" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" ht="11" customHeight="true" outlineLevel="3">
@@ -3214,7 +3193,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="11" t="n">
-        <v>54</v>
+        <v>270</v>
       </c>
     </row>
     <row r="243" ht="11" customHeight="true" outlineLevel="3">
@@ -3222,7 +3201,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="11" t="n">
-        <v>75</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" ht="11" customHeight="true" outlineLevel="3">
@@ -3230,15 +3209,15 @@
         <v>243</v>
       </c>
       <c r="C244" s="11" t="n">
-        <v>280</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" ht="11" customHeight="true" outlineLevel="3">
       <c r="B245" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C245" s="11" t="n">
-        <v>253</v>
+      <c r="C245" s="16" t="n">
+        <v>1303</v>
       </c>
     </row>
     <row r="246" ht="11" customHeight="true" outlineLevel="3">
@@ -3246,15 +3225,15 @@
         <v>245</v>
       </c>
       <c r="C246" s="11" t="n">
-        <v>364</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" ht="11" customHeight="true" outlineLevel="3">
       <c r="B247" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C247" s="16" t="n">
-        <v>1318</v>
+      <c r="C247" s="11" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="248" ht="11" customHeight="true" outlineLevel="3">
@@ -3262,7 +3241,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="11" t="n">
-        <v>14</v>
+        <v>947</v>
       </c>
     </row>
     <row r="249" ht="11" customHeight="true" outlineLevel="3">
@@ -3270,23 +3249,23 @@
         <v>248</v>
       </c>
       <c r="C249" s="11" t="n">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="250" ht="11" customHeight="true" outlineLevel="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="250" ht="22" customHeight="true" outlineLevel="3">
       <c r="B250" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C250" s="16" t="n">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="251" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C250" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="251" ht="22" customHeight="true" outlineLevel="3">
       <c r="B251" s="15" t="s">
         <v>250</v>
       </c>
       <c r="C251" s="11" t="n">
-        <v>640</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" ht="11" customHeight="true" outlineLevel="3">
@@ -3294,23 +3273,23 @@
         <v>251</v>
       </c>
       <c r="C252" s="11" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="253" ht="22" customHeight="true" outlineLevel="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" ht="11" customHeight="true" outlineLevel="3">
       <c r="B253" s="15" t="s">
         <v>252</v>
       </c>
       <c r="C253" s="11" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="254" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B254" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B254" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="11" t="n">
-        <v>1</v>
+      <c r="C254" s="12" t="n">
+        <v>3571</v>
       </c>
     </row>
     <row r="255" ht="11" customHeight="true" outlineLevel="3">
@@ -3318,7 +3297,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="11" t="n">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="256" ht="11" customHeight="true" outlineLevel="3">
@@ -3326,15 +3305,15 @@
         <v>255</v>
       </c>
       <c r="C256" s="11" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="257" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B257" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="257" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B257" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C257" s="12" t="n">
-        <v>3835</v>
+      <c r="C257" s="11" t="n">
+        <v>514</v>
       </c>
     </row>
     <row r="258" ht="11" customHeight="true" outlineLevel="3">
@@ -3342,7 +3321,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="11" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
     </row>
     <row r="259" ht="11" customHeight="true" outlineLevel="3">
@@ -3350,7 +3329,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="11" t="n">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="260" ht="11" customHeight="true" outlineLevel="3">
@@ -3358,7 +3337,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="11" t="n">
-        <v>538</v>
+        <v>63</v>
       </c>
     </row>
     <row r="261" ht="11" customHeight="true" outlineLevel="3">
@@ -3366,7 +3345,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="11" t="n">
-        <v>6</v>
+        <v>293</v>
       </c>
     </row>
     <row r="262" ht="11" customHeight="true" outlineLevel="3">
@@ -3374,7 +3353,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="11" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" ht="11" customHeight="true" outlineLevel="3">
@@ -3382,7 +3361,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="11" t="n">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" ht="11" customHeight="true" outlineLevel="3">
@@ -3390,7 +3369,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="11" t="n">
-        <v>70</v>
+        <v>176</v>
       </c>
     </row>
     <row r="265" ht="11" customHeight="true" outlineLevel="3">
@@ -3398,7 +3377,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="11" t="n">
-        <v>309</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" ht="11" customHeight="true" outlineLevel="3">
@@ -3406,7 +3385,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="11" t="n">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267" ht="11" customHeight="true" outlineLevel="3">
@@ -3414,7 +3393,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="11" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" ht="11" customHeight="true" outlineLevel="3">
@@ -3422,7 +3401,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="11" t="n">
-        <v>185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" ht="11" customHeight="true" outlineLevel="3">
@@ -3430,7 +3409,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="11" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" ht="11" customHeight="true" outlineLevel="3">
@@ -3438,15 +3417,15 @@
         <v>269</v>
       </c>
       <c r="C270" s="11" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="271" ht="11" customHeight="true" outlineLevel="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="271" ht="22" customHeight="true" outlineLevel="3">
       <c r="B271" s="15" t="s">
         <v>270</v>
       </c>
       <c r="C271" s="11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" ht="11" customHeight="true" outlineLevel="3">
@@ -3454,7 +3433,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="11" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273" ht="11" customHeight="true" outlineLevel="3">
@@ -3462,7 +3441,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="11" t="n">
-        <v>12</v>
+        <v>626</v>
       </c>
     </row>
     <row r="274" ht="11" customHeight="true" outlineLevel="3">
@@ -3470,15 +3449,15 @@
         <v>273</v>
       </c>
       <c r="C274" s="11" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="275" ht="22" customHeight="true" outlineLevel="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" ht="11" customHeight="true" outlineLevel="3">
       <c r="B275" s="15" t="s">
         <v>274</v>
       </c>
       <c r="C275" s="11" t="n">
-        <v>7</v>
+        <v>596</v>
       </c>
     </row>
     <row r="276" ht="11" customHeight="true" outlineLevel="3">
@@ -3486,7 +3465,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="11" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277" ht="11" customHeight="true" outlineLevel="3">
@@ -3494,15 +3473,15 @@
         <v>276</v>
       </c>
       <c r="C277" s="11" t="n">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="278" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B278" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="278" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B278" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C278" s="11" t="n">
-        <v>12</v>
+      <c r="C278" s="17" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="279" ht="11" customHeight="true" outlineLevel="3">
@@ -3510,7 +3489,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="11" t="n">
-        <v>630</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" ht="11" customHeight="true" outlineLevel="3">
@@ -3518,23 +3497,23 @@
         <v>279</v>
       </c>
       <c r="C280" s="11" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="281" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B281" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="281" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B281" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C281" s="11" t="n">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="282" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B282" s="14" t="s">
+      <c r="C281" s="12" t="n">
+        <v>58555</v>
+      </c>
+    </row>
+    <row r="282" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B282" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="17" t="n">
-        <v>143</v>
+      <c r="C282" s="11" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="283" ht="11" customHeight="true" outlineLevel="3">
@@ -3542,39 +3521,39 @@
         <v>282</v>
       </c>
       <c r="C283" s="11" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="284" ht="11" customHeight="true" outlineLevel="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" ht="22" customHeight="true" outlineLevel="3">
       <c r="B284" s="15" t="s">
         <v>283</v>
       </c>
       <c r="C284" s="11" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="285" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B285" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="285" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B285" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="12" t="n">
-        <v>59039</v>
-      </c>
-    </row>
-    <row r="286" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C285" s="16" t="n">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="286" ht="22" customHeight="true" outlineLevel="3">
       <c r="B286" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C286" s="11" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="287" ht="11" customHeight="true" outlineLevel="3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="287" ht="22" customHeight="true" outlineLevel="3">
       <c r="B287" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="11" t="n">
-        <v>3</v>
+      <c r="C287" s="16" t="n">
+        <v>4106</v>
       </c>
     </row>
     <row r="288" ht="22" customHeight="true" outlineLevel="3">
@@ -3582,31 +3561,31 @@
         <v>287</v>
       </c>
       <c r="C288" s="11" t="n">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="289" ht="22" customHeight="true" outlineLevel="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" ht="11" customHeight="true" outlineLevel="3">
       <c r="B289" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="16" t="n">
-        <v>4229</v>
-      </c>
-    </row>
-    <row r="290" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C289" s="11" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="290" ht="11" customHeight="true" outlineLevel="3">
       <c r="B290" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C290" s="11" t="n">
-        <v>566</v>
+      <c r="C290" s="16" t="n">
+        <v>1174</v>
       </c>
     </row>
     <row r="291" ht="22" customHeight="true" outlineLevel="3">
       <c r="B291" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="16" t="n">
-        <v>4175</v>
+      <c r="C291" s="11" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="292" ht="22" customHeight="true" outlineLevel="3">
@@ -3614,39 +3593,39 @@
         <v>291</v>
       </c>
       <c r="C292" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" ht="11" customHeight="true" outlineLevel="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="293" ht="22" customHeight="true" outlineLevel="3">
       <c r="B293" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C293" s="11" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="294" ht="11" customHeight="true" outlineLevel="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="294" ht="22" customHeight="true" outlineLevel="3">
       <c r="B294" s="15" t="s">
         <v>293</v>
       </c>
       <c r="C294" s="16" t="n">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="295" ht="11" customHeight="true" outlineLevel="3">
+        <v>9636</v>
+      </c>
+    </row>
+    <row r="295" ht="22" customHeight="true" outlineLevel="3">
       <c r="B295" s="15" t="s">
         <v>294</v>
       </c>
       <c r="C295" s="11" t="n">
-        <v>6</v>
+        <v>429</v>
       </c>
     </row>
     <row r="296" ht="22" customHeight="true" outlineLevel="3">
       <c r="B296" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C296" s="11" t="n">
-        <v>15</v>
+      <c r="C296" s="16" t="n">
+        <v>2526</v>
       </c>
     </row>
     <row r="297" ht="22" customHeight="true" outlineLevel="3">
@@ -3654,23 +3633,23 @@
         <v>296</v>
       </c>
       <c r="C297" s="11" t="n">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="298" ht="22" customHeight="true" outlineLevel="3">
       <c r="B298" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C298" s="11" t="n">
-        <v>352</v>
+      <c r="C298" s="16" t="n">
+        <v>6953</v>
       </c>
     </row>
     <row r="299" ht="22" customHeight="true" outlineLevel="3">
       <c r="B299" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C299" s="16" t="n">
-        <v>9693</v>
+      <c r="C299" s="11" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="300" ht="22" customHeight="true" outlineLevel="3">
@@ -3678,7 +3657,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="11" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" ht="22" customHeight="true" outlineLevel="3">
@@ -3686,7 +3665,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="11" t="n">
-        <v>200</v>
+        <v>578</v>
       </c>
     </row>
     <row r="302" ht="22" customHeight="true" outlineLevel="3">
@@ -3694,55 +3673,55 @@
         <v>301</v>
       </c>
       <c r="C302" s="16" t="n">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="303" ht="22" customHeight="true" outlineLevel="3">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="303" ht="11" customHeight="true" outlineLevel="3">
       <c r="B303" s="15" t="s">
         <v>302</v>
       </c>
       <c r="C303" s="11" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="304" ht="22" customHeight="true" outlineLevel="3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="304" ht="11" customHeight="true" outlineLevel="3">
       <c r="B304" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C304" s="16" t="n">
-        <v>7014</v>
-      </c>
-    </row>
-    <row r="305" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C304" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" ht="11" customHeight="true" outlineLevel="3">
       <c r="B305" s="15" t="s">
         <v>304</v>
       </c>
       <c r="C305" s="11" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="306" ht="22" customHeight="true" outlineLevel="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" ht="11" customHeight="true" outlineLevel="3">
       <c r="B306" s="15" t="s">
         <v>305</v>
       </c>
       <c r="C306" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" ht="22" customHeight="true" outlineLevel="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="307" ht="11" customHeight="true" outlineLevel="3">
       <c r="B307" s="15" t="s">
         <v>306</v>
       </c>
       <c r="C307" s="11" t="n">
-        <v>593</v>
+        <v>285</v>
       </c>
     </row>
     <row r="308" ht="22" customHeight="true" outlineLevel="3">
       <c r="B308" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C308" s="16" t="n">
-        <v>3250</v>
+      <c r="C308" s="11" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="309" ht="22" customHeight="true" outlineLevel="3">
@@ -3750,39 +3729,39 @@
         <v>308</v>
       </c>
       <c r="C309" s="11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" ht="11" customHeight="true" outlineLevel="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="310" ht="22" customHeight="true" outlineLevel="3">
       <c r="B310" s="15" t="s">
         <v>309</v>
       </c>
       <c r="C310" s="11" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="311" ht="11" customHeight="true" outlineLevel="3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="311" ht="22" customHeight="true" outlineLevel="3">
       <c r="B311" s="15" t="s">
         <v>310</v>
       </c>
       <c r="C311" s="11" t="n">
-        <v>8</v>
+        <v>657</v>
       </c>
     </row>
     <row r="312" ht="11" customHeight="true" outlineLevel="3">
       <c r="B312" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C312" s="11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C312" s="16" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="313" ht="22" customHeight="true" outlineLevel="3">
       <c r="B313" s="15" t="s">
         <v>312</v>
       </c>
       <c r="C313" s="11" t="n">
-        <v>130</v>
+        <v>640</v>
       </c>
     </row>
     <row r="314" ht="11" customHeight="true" outlineLevel="3">
@@ -3790,15 +3769,15 @@
         <v>313</v>
       </c>
       <c r="C314" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="315" ht="22" customHeight="true" outlineLevel="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="315" ht="11" customHeight="true" outlineLevel="3">
       <c r="B315" s="15" t="s">
         <v>314</v>
       </c>
       <c r="C315" s="11" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316" ht="22" customHeight="true" outlineLevel="3">
@@ -3806,15 +3785,15 @@
         <v>315</v>
       </c>
       <c r="C316" s="11" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="317" ht="22" customHeight="true" outlineLevel="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="317" ht="11" customHeight="true" outlineLevel="3">
       <c r="B317" s="15" t="s">
         <v>316</v>
       </c>
       <c r="C317" s="11" t="n">
-        <v>61</v>
+        <v>677</v>
       </c>
     </row>
     <row r="318" ht="22" customHeight="true" outlineLevel="3">
@@ -3822,39 +3801,39 @@
         <v>317</v>
       </c>
       <c r="C318" s="11" t="n">
-        <v>685</v>
+        <v>180</v>
       </c>
     </row>
     <row r="319" ht="11" customHeight="true" outlineLevel="3">
       <c r="B319" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C319" s="16" t="n">
-        <v>1277</v>
+      <c r="C319" s="11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="320" ht="22" customHeight="true" outlineLevel="3">
       <c r="B320" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C320" s="11" t="n">
-        <v>650</v>
+      <c r="C320" s="16" t="n">
+        <v>2487</v>
       </c>
     </row>
     <row r="321" ht="11" customHeight="true" outlineLevel="3">
       <c r="B321" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C321" s="11" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="322" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C321" s="16" t="n">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="322" ht="11" customHeight="true" outlineLevel="3">
       <c r="B322" s="15" t="s">
         <v>321</v>
       </c>
       <c r="C322" s="11" t="n">
-        <v>266</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" ht="11" customHeight="true" outlineLevel="3">
@@ -3862,39 +3841,39 @@
         <v>322</v>
       </c>
       <c r="C323" s="11" t="n">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="324" ht="22" customHeight="true" outlineLevel="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" ht="11" customHeight="true" outlineLevel="3">
       <c r="B324" s="15" t="s">
         <v>323</v>
       </c>
       <c r="C324" s="11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="325" ht="11" customHeight="true" outlineLevel="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325" ht="22" customHeight="true" outlineLevel="3">
       <c r="B325" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C325" s="11" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="326" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C325" s="16" t="n">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="326" ht="11" customHeight="true" outlineLevel="3">
       <c r="B326" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C326" s="16" t="n">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="327" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C326" s="11" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="327" ht="22" customHeight="true" outlineLevel="3">
       <c r="B327" s="15" t="s">
         <v>326</v>
       </c>
       <c r="C327" s="16" t="n">
-        <v>1150</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="328" ht="11" customHeight="true" outlineLevel="3">
@@ -3902,15 +3881,15 @@
         <v>327</v>
       </c>
       <c r="C328" s="11" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="329" ht="11" customHeight="true" outlineLevel="3">
       <c r="B329" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C329" s="11" t="n">
-        <v>4</v>
+      <c r="C329" s="16" t="n">
+        <v>1718</v>
       </c>
     </row>
     <row r="330" ht="11" customHeight="true" outlineLevel="3">
@@ -3918,15 +3897,15 @@
         <v>329</v>
       </c>
       <c r="C330" s="11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="331" ht="22" customHeight="true" outlineLevel="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="331" ht="11" customHeight="true" outlineLevel="3">
       <c r="B331" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C331" s="16" t="n">
-        <v>1308</v>
+      <c r="C331" s="11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="332" ht="11" customHeight="true" outlineLevel="3">
@@ -3934,15 +3913,15 @@
         <v>331</v>
       </c>
       <c r="C332" s="11" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="333" ht="22" customHeight="true" outlineLevel="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="333" ht="11" customHeight="true" outlineLevel="3">
       <c r="B333" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="16" t="n">
-        <v>1901</v>
+      <c r="C333" s="11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="334" ht="11" customHeight="true" outlineLevel="3">
@@ -3950,95 +3929,39 @@
         <v>333</v>
       </c>
       <c r="C334" s="11" t="n">
-        <v>4</v>
+        <v>359</v>
       </c>
     </row>
     <row r="335" ht="11" customHeight="true" outlineLevel="3">
       <c r="B335" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C335" s="16" t="n">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="336" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C335" s="11" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="336" ht="22" customHeight="true" outlineLevel="3">
       <c r="B336" s="15" t="s">
         <v>335</v>
       </c>
       <c r="C336" s="11" t="n">
-        <v>201</v>
+        <v>685</v>
       </c>
     </row>
     <row r="337" ht="11" customHeight="true" outlineLevel="3">
       <c r="B337" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C337" s="11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="338" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C337" s="16" t="n">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="338" ht="22" customHeight="true" outlineLevel="3">
       <c r="B338" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C338" s="11" t="n">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="339" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B339" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C339" s="11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="340" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B340" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C340" s="11" t="n">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="341" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B341" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C341" s="11" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="342" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B342" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C342" s="11" t="n">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="343" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B343" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C343" s="16" t="n">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="344" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B344" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C344" s="16" t="n">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="345" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B345" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C345" s="16" t="n">
-        <v>4693</v>
+      <c r="C338" s="16" t="n">
+        <v>3973</v>
       </c>
     </row>
   </sheetData>
